--- a/data/map/stage01.xlsx
+++ b/data/map/stage01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction_remeke\project\data\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\ゲーム開発(チーム)\2DAction_remeke\project\data\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61F3BED-F7EB-4A1A-8D2C-C4A4C2192831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45C61BA-9B35-45B9-8849-5248439F418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="1248" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,39 +381,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HJ1" workbookViewId="0">
-      <selection activeCell="IN2" sqref="IN2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.75" customWidth="1"/>
-    <col min="21" max="24" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.69921875" customWidth="1"/>
+    <col min="21" max="24" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="2.59765625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="110" width="2.625" customWidth="1"/>
+    <col min="33" max="110" width="2.59765625" customWidth="1"/>
     <col min="111" max="111" width="3" customWidth="1"/>
-    <col min="112" max="112" width="2.75" customWidth="1"/>
+    <col min="112" max="112" width="2.69921875" customWidth="1"/>
     <col min="113" max="130" width="3.5" customWidth="1"/>
-    <col min="131" max="141" width="3.25" customWidth="1"/>
-    <col min="142" max="162" width="3.375" customWidth="1"/>
-    <col min="163" max="163" width="3.125" customWidth="1"/>
-    <col min="164" max="174" width="3.375" customWidth="1"/>
-    <col min="175" max="208" width="3.875" customWidth="1"/>
+    <col min="131" max="141" width="3.19921875" customWidth="1"/>
+    <col min="142" max="162" width="3.3984375" customWidth="1"/>
+    <col min="163" max="163" width="3.09765625" customWidth="1"/>
+    <col min="164" max="174" width="3.3984375" customWidth="1"/>
+    <col min="175" max="208" width="3.8984375" customWidth="1"/>
     <col min="209" max="227" width="4" customWidth="1"/>
-    <col min="228" max="252" width="3.625" customWidth="1"/>
+    <col min="228" max="252" width="3.59765625" customWidth="1"/>
     <col min="253" max="254" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254">
+    <row r="1" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:254">
+    <row r="2" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:254">
+    <row r="3" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:254">
+    <row r="4" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:254">
+    <row r="5" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:254">
+    <row r="6" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:254">
+    <row r="7" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:254">
+    <row r="8" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:254">
+    <row r="9" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:254">
+    <row r="10" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -8053,7 +8053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:254">
+    <row r="11" spans="1:254" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8819,7 +8819,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A12:XFD1048576 A1:HO10 A11:IG11 IM1:XFD11">
+  <conditionalFormatting sqref="A1:HO10 IM1:XFD11 A11:IG11 A12:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
